--- a/MMS/Plan/需求导入模板/需求导入模板.xlsx
+++ b/MMS/Plan/需求导入模板/需求导入模板.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>产品图号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>一般</t>
+  </si>
+  <si>
+    <t>单件定额质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -478,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -490,10 +494,10 @@
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,37 +520,40 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -568,38 +575,41 @@
       <c r="G2">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>42984</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -621,62 +631,65 @@
       <c r="G3">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>42984</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
+      <formula1>"M,C,S,D"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3">
+      <formula1>"天津305"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
-      <formula1>"M,C,S,D"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
-      <formula1>"天津305"</formula1>
+      <formula1>"eeee,ffff"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
-      <formula1>"eeee,ffff"</formula1>
+      <formula1>"内部,秘密,机密"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
+      <formula1>"aaaa,bbbb"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3">
+      <formula1>"国产,进口"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
-      <formula1>"内部,秘密,机密"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
-      <formula1>"aaaa,bbbb"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3">
-      <formula1>"国产,进口"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
       <formula1>"一般,紧急"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Plan/需求导入模板/需求导入模板.xlsx
+++ b/MMS/Plan/需求导入模板/需求导入模板.xlsx
@@ -10,30 +10,23 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$W$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>产品图号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物资编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物资尺寸</t>
-  </si>
-  <si>
     <t>特殊需求</t>
   </si>
   <si>
@@ -48,92 +41,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY00080080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研制阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津305</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>国产/进口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>电镀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷漆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>天津305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部</t>
+  </si>
+  <si>
+    <t>国产</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试产品1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试产品2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>300*500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计需求件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共计需求数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YY00080080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研制阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合格证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津305</t>
-  </si>
-  <si>
-    <t>bbbb</t>
-  </si>
-  <si>
-    <t>eeee</t>
-  </si>
-  <si>
-    <t>机密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>国产/进口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进口</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>单件定额质量</t>
+    <t>需求件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计需求数量（重量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Φ140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB 5133-1985</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,215 +531,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.25" customWidth="1"/>
+    <col min="5" max="11" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="14" width="20.75" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3841</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1">
+        <v>42984</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="E3">
+        <v>3841</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1">
+        <v>42984</v>
+      </c>
+      <c r="Q3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1">
-        <v>42984</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="W3" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1">
-        <v>42984</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T3">
       <formula1>"M,C,S,D"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3">
       <formula1>"天津305"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
-      <formula1>"eeee,ffff"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3">
       <formula1>"内部,秘密,机密"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
-      <formula1>"aaaa,bbbb"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3">
       <formula1>"国产,进口"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q3">
       <formula1>"一般,紧急"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+      <formula1>"aaaa,bbbb"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MMS/Plan/需求导入模板/需求导入模板.xlsx
+++ b/MMS/Plan/需求导入模板/需求导入模板.xlsx
@@ -534,7 +534,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
